--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2023537.5943476</v>
+        <v>2017101.069772013</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791236</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8748121.295286655</v>
+        <v>8747531.315896237</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20.2742543551236</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>113.3971616300009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104615236</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072253</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,13 +832,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>26.647574222727</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>231.3111401397373</v>
+        <v>40.19280726917127</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>114.2483168457461</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072253</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>130.417892858628</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>43.18731052417742</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>269.7889094192373</v>
+        <v>76.63865292358363</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.93354191224999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372786</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>54.22076354052915</v>
+        <v>99.78125614575994</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442482</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681696</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901685</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187162</v>
@@ -1585,16 +1585,16 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>55.95752552688857</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y13" t="n">
-        <v>56.61774365512815</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.64718169059</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.9528155621448</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>54.22076354052985</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372781</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>129.4392046783864</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>314.4797666215417</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993872</v>
+        <v>97.42475435993866</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177844</v>
+        <v>82.99846957177839</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465755</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442482</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681696</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H16" t="n">
-        <v>82.845453133389</v>
+        <v>82.84545313338894</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456093</v>
+        <v>60.68516871456087</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901685</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187162</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>16.05788523921079</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001147</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>42.56672597581643</v>
       </c>
     </row>
     <row r="17">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
         <v>90.90562710059311</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404348</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007181</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035421</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219394</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507305</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484032</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380447</v>
+        <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943235</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838895</v>
+        <v>24.17382596574986</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828908</v>
+        <v>52.06849973564998</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043174</v>
+        <v>70.5760187316783</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459981</v>
+        <v>55.72314698196071</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643953</v>
+        <v>41.29686219380044</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931864</v>
+        <v>41.22330424667955</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908591</v>
+        <v>42.97275566644682</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147805</v>
+        <v>53.79159358883895</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805009</v>
+        <v>41.14384575541099</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922202</v>
+        <v>18.98356133658292</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367794</v>
+        <v>9.882059701038841</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920526</v>
+        <v>88.00800320656616</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422874098</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059287</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541639</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1414.473495167765</v>
+        <v>1285.214987038582</v>
       </c>
       <c r="C2" t="n">
-        <v>1414.473495167765</v>
+        <v>892.0394855415127</v>
       </c>
       <c r="D2" t="n">
-        <v>1414.473495167765</v>
+        <v>892.0394855415127</v>
       </c>
       <c r="E2" t="n">
-        <v>1011.889970284309</v>
+        <v>892.0394855415127</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>475.1450470714905</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022902</v>
+        <v>61.9822915594936</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>188.1454323035831</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>681.465724022112</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>681.465724022112</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678801</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238217</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>1529.016082672816</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>1529.016082672816</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>1529.016082672816</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="X2" t="n">
-        <v>1529.016082672816</v>
+        <v>1685.709732749979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1414.473495167765</v>
+        <v>1685.709732749979</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021451</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622374</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837177</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946054</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777372</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>114.1919230777372</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.495659394755</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>1498.174658585115</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1534.796509466462</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675992</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431065</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>694.9138791138325</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>524.7087611798217</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="D4" t="n">
-        <v>369.0756480823365</v>
+        <v>841.5932941600436</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823365</v>
+        <v>686.0344820192461</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>528.7085472322191</v>
       </c>
       <c r="G4" t="n">
-        <v>43.495659394755</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>43.495659394755</v>
+        <v>204.9759422931586</v>
       </c>
       <c r="I4" t="n">
-        <v>43.495659394755</v>
+        <v>71.8815169302365</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>918.0259402971892</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>694.9138791138325</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>694.0377141675422</v>
+        <v>1276.156231571199</v>
       </c>
       <c r="C5" t="n">
-        <v>694.0377141675422</v>
+        <v>882.9807300741295</v>
       </c>
       <c r="D5" t="n">
-        <v>694.0377141675422</v>
+        <v>497.5396012907972</v>
       </c>
       <c r="E5" t="n">
-        <v>694.0377141675422</v>
+        <v>94.95607640734175</v>
       </c>
       <c r="F5" t="n">
-        <v>277.1432756975199</v>
+        <v>82.10204197772357</v>
       </c>
       <c r="G5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.259363687036</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O5" t="n">
-        <v>2008.298964579364</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="P5" t="n">
-        <v>2008.298964579364</v>
+        <v>2012.380333804334</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>1870.655869043495</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523739</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958338</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="V5" t="n">
-        <v>1491.023168958338</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="W5" t="n">
-        <v>1491.023168958338</v>
+        <v>1276.156231571199</v>
       </c>
       <c r="X5" t="n">
-        <v>1491.023168958338</v>
+        <v>1276.156231571199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1094.532459878939</v>
+        <v>1276.156231571199</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>807.6097523431065</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>43.495659394755</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>363.2348054569815</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>581.745117126583</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1120.003902136676</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.262687146769</v>
+        <v>1155.938290490837</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.78296973775</v>
+        <v>1669.540969100525</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635815</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535683</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734592</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413234</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784301</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675992</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431065</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.495659394755</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C7" t="n">
-        <v>43.495659394755</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="D7" t="n">
-        <v>43.495659394755</v>
+        <v>811.2150239861455</v>
       </c>
       <c r="E7" t="n">
-        <v>43.495659394755</v>
+        <v>655.656211845348</v>
       </c>
       <c r="F7" t="n">
-        <v>43.495659394755</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G7" t="n">
-        <v>43.495659394755</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H7" t="n">
-        <v>43.495659394755</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>506.4075462870908</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>462.7840003030732</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>462.7840003030732</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>462.7840003030732</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>228.7036780860563</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860563</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>745.8438099615802</v>
+        <v>1802.644240938832</v>
       </c>
       <c r="C8" t="n">
-        <v>745.8438099615802</v>
+        <v>1802.644240938832</v>
       </c>
       <c r="D8" t="n">
-        <v>745.8438099615802</v>
+        <v>1417.2031121555</v>
       </c>
       <c r="E8" t="n">
-        <v>473.3297600431587</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2321.615293661099</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2104.154988922119</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.402259356717</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>1506.295450060236</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W8" t="n">
-        <v>1135.296415028523</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="X8" t="n">
-        <v>745.8438099615802</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="Y8" t="n">
-        <v>745.8438099615802</v>
+        <v>1802.644240938832</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N9" t="n">
         <v>1443.506853769802</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>335.8859465029718</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>386.3238676264566</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1459.556716529488</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1145.911862892349</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550881</v>
+        <v>815.1246131550879</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312598</v>
+        <v>470.0264498312597</v>
       </c>
       <c r="G11" t="n">
         <v>128.6599694654568</v>
@@ -5066,22 +5066,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>3105.956385205776</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>3051.18793718504</v>
+        <v>2726.493503251834</v>
       </c>
       <c r="W11" t="n">
-        <v>2751.985177299521</v>
+        <v>2427.290743366316</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2109.634413445567</v>
       </c>
       <c r="Y11" t="n">
         <v>2109.634413445567</v>
@@ -5127,16 +5127,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.2583719907702</v>
+        <v>389.3452345522639</v>
       </c>
       <c r="C13" t="n">
-        <v>472.8495292029532</v>
+        <v>290.9363917644471</v>
       </c>
       <c r="D13" t="n">
-        <v>472.8495292029532</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083497</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1280.705150907707</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245445</v>
+        <v>1067.062634295802</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915626</v>
+        <v>872.8795642628202</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915626</v>
+        <v>816.3568112053568</v>
       </c>
       <c r="X13" t="n">
-        <v>741.8597555915626</v>
+        <v>654.0727641345338</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.6701155358776</v>
+        <v>502.7569780973712</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1369.296937795194</v>
+        <v>1835.7043909011</v>
       </c>
       <c r="C14" t="n">
-        <v>1047.917711444318</v>
+        <v>1514.325164550225</v>
       </c>
       <c r="D14" t="n">
-        <v>734.2728578071801</v>
+        <v>1200.680310913087</v>
       </c>
       <c r="E14" t="n">
-        <v>403.4856080699185</v>
+        <v>869.8930611758254</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>524.7948978519971</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>183.4284174861941</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411573</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411573</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.295603492179</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2639.54893209987</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W14" t="n">
-        <v>2340.346172214351</v>
+        <v>2806.753625320258</v>
       </c>
       <c r="X14" t="n">
-        <v>2022.689842293602</v>
+        <v>2489.097295399508</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.995408360397</v>
+        <v>2164.402861466303</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
         <v>1974.833293963354</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420615</v>
+        <v>571.3326729474577</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542446</v>
+        <v>472.9238301596407</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029532</v>
+        <v>389.0869922083493</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083497</v>
+        <v>389.0869922083493</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675165</v>
+        <v>303.5573325675163</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131559</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581893</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027738</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138163</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245445</v>
+        <v>988.1475398457742</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245445</v>
+        <v>988.1475398457742</v>
       </c>
       <c r="W16" t="n">
-        <v>919.8227395243316</v>
+        <v>776.6134129231458</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243316</v>
+        <v>614.3293658523228</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871689</v>
+        <v>571.3326729474577</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5604,13 @@
         <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,22 +5674,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5777,7 +5777,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5838,16 +5838,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,19 +5914,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
         <v>1098.20216247628</v>
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6078,10 +6078,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6139,16 +6139,16 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229942</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L25" t="n">
         <v>442.7178209184696</v>
@@ -6230,16 +6230,16 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
         <v>3427.58288023855</v>
@@ -6303,16 +6303,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6455,37 +6455,37 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107028</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.58288023855</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.428440379499</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605752</v>
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,16 +6549,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985349</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057088</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835507</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>323.8570290861561</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1256.45667742699</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1802.457577471571</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2330.268861109033</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651162</v>
+        <v>2770.308462001361</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897133</v>
+        <v>3118.495954132884</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038082</v>
+        <v>3303.341514273832</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>551.1212215006583</v>
       </c>
       <c r="M33" t="n">
-        <v>985.9677624210287</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929717</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404862</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245261</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652539</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407228</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431925</v>
+        <v>86.730450083742</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067532</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>514.8099960076231</v>
+        <v>313.5178165860867</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729572</v>
+        <v>499.8093949243507</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041664</v>
+        <v>759.0249449603698</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145874</v>
+        <v>1033.381832577061</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1264.910118928622</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873656</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250186</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395524</v>
+        <v>835.725728327368</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000945</v>
+        <v>666.3144371400708</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124421</v>
+        <v>546.1532258045792</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.02107175845</v>
+        <v>436.9602755027478</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6974,10 +6974,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7102,43 +7102,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.889542297544</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099302</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803418</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924088</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,16 +7196,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
@@ -7214,10 +7214,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7391,19 +7391,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7448,13 +7448,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7497,16 +7497,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,10 +7579,10 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7628,19 +7628,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
         <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7819,37 +7819,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072212</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>214.0018366896125</v>
       </c>
       <c r="N2" t="n">
-        <v>674.6180797729754</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837494</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>122.3638814211838</v>
+        <v>485.881068693858</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>312.6643601945397</v>
+        <v>207.9148640876739</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>310.7778333918693</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837494</v>
+        <v>292.40210139702</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>188.9766897477674</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>577.0069902189997</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8775,7 +8775,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,10 +9003,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,10 +9015,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>457.616862805975</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9726,13 +9726,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>609.629233666585</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>133.4455245943151</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>577.0069902189987</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118431</v>
+        <v>373.1055958271598</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>133.4455245943154</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10911,7 +10911,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>136.3731801151487</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,10 +11373,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>213.3866652682557</v>
+        <v>167.8261726630249</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177844</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442477</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.4932009668169</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845441</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>153.4612601265136</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.18488452166297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>195.5431439939124</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372786</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362799</v>
+        <v>93.77010711362793</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>138.1682241303985</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.9249116246575</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901679</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
-        <v>193.3609004141914</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>107.2359022009746</v>
       </c>
     </row>
     <row r="17">
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>768264.8495570263</v>
+        <v>767964.0757501461</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>768264.8495570263</v>
+        <v>767964.0757501461</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682212.1913746387</v>
+        <v>682212.191374639</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682212.1913746388</v>
+        <v>682212.1913746389</v>
       </c>
     </row>
     <row r="7">
@@ -26317,43 +26317,43 @@
         <v>504930.098661399</v>
       </c>
       <c r="D2" t="n">
-        <v>504930.0986613991</v>
+        <v>504930.098661399</v>
       </c>
       <c r="E2" t="n">
+        <v>446205.2655883213</v>
+      </c>
+      <c r="F2" t="n">
         <v>446205.2655883211</v>
-      </c>
-      <c r="F2" t="n">
-        <v>446205.2655883212</v>
       </c>
       <c r="G2" t="n">
         <v>504930.0986613985</v>
       </c>
       <c r="H2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.0986613984</v>
       </c>
       <c r="I2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="J2" t="n">
-        <v>504930.0986613993</v>
+        <v>504930.098661399</v>
       </c>
       <c r="K2" t="n">
-        <v>504930.0986613991</v>
+        <v>504930.0986613992</v>
       </c>
       <c r="L2" t="n">
-        <v>504930.0986613994</v>
+        <v>504930.0986613982</v>
       </c>
       <c r="M2" t="n">
-        <v>504930.0986613982</v>
+        <v>504930.0986613985</v>
       </c>
       <c r="N2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.098661398</v>
       </c>
       <c r="O2" t="n">
-        <v>504930.0986613983</v>
+        <v>504930.0986613989</v>
       </c>
       <c r="P2" t="n">
-        <v>504930.0986613985</v>
+        <v>504930.0986613996</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668194</v>
+        <v>47425.3255366819</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.2417753967</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277129</v>
+        <v>27767.69404277131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585816</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589432</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589427</v>
+        <v>86988.78851589432</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26442,10 +26442,10 @@
         <v>135498.1974718596</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26457,7 +26457,7 @@
         <v>134747.7050074764</v>
       </c>
       <c r="P4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,7 +26488,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77965.04444029101</v>
+        <v>81414.16883394534</v>
       </c>
       <c r="C6" t="n">
-        <v>260169.9927321467</v>
+        <v>255272.8258680003</v>
       </c>
       <c r="D6" t="n">
-        <v>254730.4507563226</v>
+        <v>246994.1615329308</v>
       </c>
       <c r="E6" t="n">
-        <v>193907.8958985418</v>
+        <v>193698.1643518523</v>
       </c>
       <c r="F6" t="n">
-        <v>306030.4573725864</v>
+        <v>305820.7258258967</v>
       </c>
       <c r="G6" t="n">
         <v>264587.2988017205</v>
       </c>
       <c r="H6" t="n">
-        <v>312012.6243384022</v>
+        <v>312012.6243384023</v>
       </c>
       <c r="I6" t="n">
-        <v>312012.6243384022</v>
+        <v>312012.6243384024</v>
       </c>
       <c r="J6" t="n">
-        <v>98970.70674111758</v>
+        <v>105486.9918956906</v>
       </c>
       <c r="K6" t="n">
-        <v>305772.85593562</v>
+        <v>305772.8559356201</v>
       </c>
       <c r="L6" t="n">
-        <v>250590.2670009992</v>
+        <v>246541.4297905258</v>
       </c>
       <c r="M6" t="n">
-        <v>269811.7948787793</v>
+        <v>268760.0998675912</v>
       </c>
       <c r="N6" t="n">
-        <v>312012.6243384022</v>
+        <v>312012.6243384019</v>
       </c>
       <c r="O6" t="n">
-        <v>284244.9302956309</v>
+        <v>284244.9302956315</v>
       </c>
       <c r="P6" t="n">
-        <v>312012.6243384024</v>
+        <v>312012.6243384034</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26710,16 +26710,16 @@
         <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,16 +26808,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
         <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293137</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.07030221924587</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551346</v>
+        <v>17.58004954287442</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346414</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773714</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407248</v>
+        <v>117.1268713042793</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085243</v>
+        <v>59.28165692085237</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346411</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>300.5679655740506</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.128640358604</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.42514118925271</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>68.15966136820178</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>205.0919447721197</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>177.7199878171396</v>
+        <v>368.8383206877056</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.89937128976263</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758553</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788243</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,13 +27822,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>239.3970933163407</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>128.7687802153836</v>
+        <v>321.9190367110373</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>116.6379714492989</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473195</v>
+        <v>71.07831239473201</v>
       </c>
     </row>
     <row r="17">
@@ -28746,25 +28746,25 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28834,7 +28834,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28986,22 +28986,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634529005</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>35.71049010668824</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431648</v>
@@ -29311,10 +29311,10 @@
         <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901141</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901169</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431646</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>81.10808140893266</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>48.6599273883333</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045419</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.79385455031297</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>5.636002634528836</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082787</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155857</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082788</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30651,13 +30651,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>5.636002634528012</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>64.27678509188524</v>
       </c>
       <c r="N2" t="n">
-        <v>525.4995884351913</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344375</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.99176856701715</v>
+        <v>400.5089558396913</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>168.1656617761475</v>
+        <v>63.41616566928173</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>220.717486534951</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344375</v>
+        <v>200.0149793477081</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>44.47799132937524</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>484.6198681696878</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K13" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P13" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,10 +35735,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>372.2447499518083</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257288</v>
+        <v>41.00382492257294</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7399700815419</v>
+        <v>153.739970081542</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318109</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326901</v>
+        <v>192.1653485326902</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488444</v>
+        <v>74.53507640488449</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565491</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,22 +36282,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>516.9416747776961</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529174</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,10 +36607,10 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751655991</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>51.00106726098175</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004055</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004798</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.3782898969832</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>484.6198681696868</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446894</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.890801498799</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>579.4114063771436</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511623</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458571</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>400.364464894921</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537668</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576764</v>
+        <v>287.7334829729932</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272642</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>261.8338889252718</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>233.8669559106681</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828624</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873208</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184312</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835522</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>51.00106726098203</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634530013</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065884</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,13 +37947,13 @@
         <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716069</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
